--- a/trachoma/data/coverage/scen2c.xlsx
+++ b/trachoma/data/coverage/scen2c.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-trachoma/trachoma/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-trachoma/trachoma/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAEC6F4-D8FE-1D48-B43C-4928A2130C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B0FCB9-59A6-9941-974B-DDC43FCA4CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="39620" windowHeight="20400" xr2:uid="{3C549273-F2E9-8146-9ED3-297BC1EE0000}"/>
+    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{4BA44B84-CD41-6346-982B-221FCFDB0FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -428,16 +427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95CCD81-F272-C743-8A5A-6EA54ADE866E}">
-  <dimension ref="A1:DF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1646A6-EB47-2E4C-B241-E23BF391ECB5}">
+  <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DE1" sqref="DE1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BL3" sqref="BL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,320 +487,167 @@
         <v>2024.1666666666665</v>
       </c>
       <c r="Q1">
-        <v>2024.5</v>
+        <v>2025</v>
       </c>
       <c r="R1">
-        <v>2024.5833333333333</v>
+        <v>2025.0833333333333</v>
       </c>
       <c r="S1">
         <f>R1+1/12</f>
-        <v>2024.6666666666665</v>
+        <v>2025.1666666666665</v>
       </c>
       <c r="T1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="U1">
-        <v>2025.0833333333333</v>
+        <v>2026.0833333333333</v>
       </c>
       <c r="V1">
         <f>U1+1/12</f>
-        <v>2025.1666666666665</v>
+        <v>2026.1666666666665</v>
       </c>
       <c r="W1">
-        <v>2025.5</v>
+        <v>2027</v>
       </c>
       <c r="X1">
-        <v>2025.5833333333333</v>
+        <v>2027.0833333333333</v>
       </c>
       <c r="Y1">
         <f>X1+1/12</f>
-        <v>2025.6666666666665</v>
+        <v>2027.1666666666665</v>
       </c>
       <c r="Z1">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="AA1">
-        <v>2026.0833333333333</v>
+        <v>2028.0833333333333</v>
       </c>
       <c r="AB1">
         <f>AA1+1/12</f>
-        <v>2026.1666666666665</v>
+        <v>2028.1666666666665</v>
       </c>
       <c r="AC1">
-        <v>2026.5</v>
+        <v>2029</v>
       </c>
       <c r="AD1">
-        <v>2026.5833333333333</v>
+        <v>2029.0833333333333</v>
       </c>
       <c r="AE1">
         <f>AD1+1/12</f>
-        <v>2026.6666666666665</v>
+        <v>2029.1666666666665</v>
       </c>
       <c r="AF1">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="AG1">
-        <v>2027.0833333333333</v>
+        <v>2030.0833333333333</v>
       </c>
       <c r="AH1">
         <f>AG1+1/12</f>
-        <v>2027.1666666666665</v>
+        <v>2030.1666666666665</v>
       </c>
       <c r="AI1">
-        <v>2027.5</v>
+        <v>2031</v>
       </c>
       <c r="AJ1">
-        <v>2027.5833333333333</v>
+        <v>2031.0833333333333</v>
       </c>
       <c r="AK1">
         <f>AJ1+1/12</f>
-        <v>2027.6666666666665</v>
+        <v>2031.1666666666665</v>
       </c>
       <c r="AL1">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="AM1">
-        <v>2028.0833333333333</v>
+        <v>2032.0833333333333</v>
       </c>
       <c r="AN1">
         <f>AM1+1/12</f>
-        <v>2028.1666666666665</v>
+        <v>2032.1666666666665</v>
       </c>
       <c r="AO1">
-        <v>2028.5</v>
+        <v>2033</v>
       </c>
       <c r="AP1">
-        <v>2028.5833333333333</v>
+        <v>2033.0833333333333</v>
       </c>
       <c r="AQ1">
         <f>AP1+1/12</f>
-        <v>2028.6666666666665</v>
+        <v>2033.1666666666665</v>
       </c>
       <c r="AR1">
-        <v>2029</v>
+        <v>2034</v>
       </c>
       <c r="AS1">
-        <v>2029.0833333333333</v>
+        <v>2034.0833333333333</v>
       </c>
       <c r="AT1">
         <f>AS1+1/12</f>
-        <v>2029.1666666666665</v>
+        <v>2034.1666666666665</v>
       </c>
       <c r="AU1">
-        <v>2029.5</v>
+        <v>2035</v>
       </c>
       <c r="AV1">
-        <v>2029.5833333333333</v>
+        <v>2035.0833333333333</v>
       </c>
       <c r="AW1">
         <f>AV1+1/12</f>
-        <v>2029.6666666666665</v>
+        <v>2035.1666666666665</v>
       </c>
       <c r="AX1">
-        <v>2030</v>
+        <v>2036</v>
       </c>
       <c r="AY1">
-        <v>2030.0833333333333</v>
+        <v>2036.0833333333333</v>
       </c>
       <c r="AZ1">
         <f>AY1+1/12</f>
-        <v>2030.1666666666665</v>
+        <v>2036.1666666666665</v>
       </c>
       <c r="BA1">
-        <v>2030.5</v>
+        <v>2037</v>
       </c>
       <c r="BB1">
-        <v>2030.5833333333333</v>
+        <v>2037.0833333333333</v>
       </c>
       <c r="BC1">
         <f>BB1+1/12</f>
-        <v>2030.6666666666665</v>
+        <v>2037.1666666666665</v>
       </c>
       <c r="BD1">
-        <v>2031</v>
+        <v>2038</v>
       </c>
       <c r="BE1">
-        <v>2031.0833333333333</v>
+        <v>2038.0833333333333</v>
       </c>
       <c r="BF1">
         <f>BE1+1/12</f>
-        <v>2031.1666666666665</v>
+        <v>2038.1666666666665</v>
       </c>
       <c r="BG1">
-        <v>2031.5</v>
+        <v>2039</v>
       </c>
       <c r="BH1">
-        <v>2031.5833333333333</v>
+        <v>2039.0833333333333</v>
       </c>
       <c r="BI1">
         <f>BH1+1/12</f>
-        <v>2031.6666666666665</v>
+        <v>2039.1666666666665</v>
       </c>
       <c r="BJ1">
-        <v>2032</v>
+        <v>2040</v>
       </c>
       <c r="BK1">
-        <v>2032.0833333333333</v>
+        <v>2040.0833333333301</v>
       </c>
       <c r="BL1">
         <f>BK1+1/12</f>
-        <v>2032.1666666666665</v>
-      </c>
-      <c r="BM1">
-        <v>2032.5</v>
-      </c>
-      <c r="BN1">
-        <v>2032.5833333333333</v>
-      </c>
-      <c r="BO1">
-        <f>BN1+1/12</f>
-        <v>2032.6666666666665</v>
-      </c>
-      <c r="BP1">
-        <v>2033</v>
-      </c>
-      <c r="BQ1">
-        <v>2033.0833333333333</v>
-      </c>
-      <c r="BR1">
-        <f>BQ1+1/12</f>
-        <v>2033.1666666666665</v>
-      </c>
-      <c r="BS1">
-        <v>2033.5</v>
-      </c>
-      <c r="BT1">
-        <v>2033.5833333333333</v>
-      </c>
-      <c r="BU1">
-        <f>BT1+1/12</f>
-        <v>2033.6666666666665</v>
-      </c>
-      <c r="BV1">
-        <v>2034</v>
-      </c>
-      <c r="BW1">
-        <v>2034.0833333333333</v>
-      </c>
-      <c r="BX1">
-        <f>BW1+1/12</f>
-        <v>2034.1666666666665</v>
-      </c>
-      <c r="BY1">
-        <v>2034.5</v>
-      </c>
-      <c r="BZ1">
-        <v>2034.5833333333333</v>
-      </c>
-      <c r="CA1">
-        <f>BZ1+1/12</f>
-        <v>2034.6666666666665</v>
-      </c>
-      <c r="CB1">
-        <v>2035</v>
-      </c>
-      <c r="CC1">
-        <v>2035.0833333333333</v>
-      </c>
-      <c r="CD1">
-        <f>CC1+1/12</f>
-        <v>2035.1666666666665</v>
-      </c>
-      <c r="CE1">
-        <v>2035.5</v>
-      </c>
-      <c r="CF1">
-        <v>2035.5833333333333</v>
-      </c>
-      <c r="CG1">
-        <f>CF1+1/12</f>
-        <v>2035.6666666666665</v>
-      </c>
-      <c r="CH1">
-        <v>2036</v>
-      </c>
-      <c r="CI1">
-        <v>2036.0833333333333</v>
-      </c>
-      <c r="CJ1">
-        <f>CI1+1/12</f>
-        <v>2036.1666666666665</v>
-      </c>
-      <c r="CK1">
-        <v>2036.5</v>
-      </c>
-      <c r="CL1">
-        <v>2036.5833333333333</v>
-      </c>
-      <c r="CM1">
-        <f>CL1+1/12</f>
-        <v>2036.6666666666665</v>
-      </c>
-      <c r="CN1">
-        <v>2037</v>
-      </c>
-      <c r="CO1">
-        <v>2037.0833333333333</v>
-      </c>
-      <c r="CP1">
-        <f>CO1+1/12</f>
-        <v>2037.1666666666665</v>
-      </c>
-      <c r="CQ1">
-        <v>2037.5</v>
-      </c>
-      <c r="CR1">
-        <v>2037.5833333333333</v>
-      </c>
-      <c r="CS1">
-        <f>CR1+1/12</f>
-        <v>2037.6666666666665</v>
-      </c>
-      <c r="CT1">
-        <v>2038</v>
-      </c>
-      <c r="CU1">
-        <v>2038.0833333333333</v>
-      </c>
-      <c r="CV1">
-        <f>CU1+1/12</f>
-        <v>2038.1666666666665</v>
-      </c>
-      <c r="CW1">
-        <v>2038.5</v>
-      </c>
-      <c r="CX1">
-        <v>2038.5833333333333</v>
-      </c>
-      <c r="CY1">
-        <f>CX1+1/12</f>
-        <v>2038.6666666666665</v>
-      </c>
-      <c r="CZ1">
-        <v>2039</v>
-      </c>
-      <c r="DA1">
-        <v>2039.0833333333333</v>
-      </c>
-      <c r="DB1">
-        <f>DA1+1/12</f>
-        <v>2039.1666666666665</v>
-      </c>
-      <c r="DC1">
-        <v>2039.5</v>
-      </c>
-      <c r="DD1">
-        <v>2039.5833333333333</v>
-      </c>
-      <c r="DE1">
-        <f>DD1+1/12</f>
-        <v>2039.6666666666665</v>
-      </c>
-      <c r="DF1">
-        <v>2040</v>
+        <v>2040.1666666666633</v>
       </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -889,56 +735,8 @@
       <c r="BJ2">
         <v>0.85</v>
       </c>
-      <c r="BM2">
-        <v>0.85</v>
-      </c>
-      <c r="BP2">
-        <v>0.85</v>
-      </c>
-      <c r="BS2">
-        <v>0.85</v>
-      </c>
-      <c r="BV2">
-        <v>0.85</v>
-      </c>
-      <c r="BY2">
-        <v>0.85</v>
-      </c>
-      <c r="CB2">
-        <v>0.85</v>
-      </c>
-      <c r="CE2">
-        <v>0.85</v>
-      </c>
-      <c r="CH2">
-        <v>0.85</v>
-      </c>
-      <c r="CK2">
-        <v>0.85</v>
-      </c>
-      <c r="CN2">
-        <v>0.85</v>
-      </c>
-      <c r="CQ2">
-        <v>0.85</v>
-      </c>
-      <c r="CT2">
-        <v>0.85</v>
-      </c>
-      <c r="CW2">
-        <v>0.85</v>
-      </c>
-      <c r="CZ2">
-        <v>0.85</v>
-      </c>
-      <c r="DC2">
-        <v>0.85</v>
-      </c>
-      <c r="DF2">
-        <v>0.85</v>
-      </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,96 +855,6 @@
         <v>0.85</v>
       </c>
       <c r="BL3">
-        <v>0.85</v>
-      </c>
-      <c r="BN3">
-        <v>0.85</v>
-      </c>
-      <c r="BO3">
-        <v>0.85</v>
-      </c>
-      <c r="BQ3">
-        <v>0.85</v>
-      </c>
-      <c r="BR3">
-        <v>0.85</v>
-      </c>
-      <c r="BT3">
-        <v>0.85</v>
-      </c>
-      <c r="BU3">
-        <v>0.85</v>
-      </c>
-      <c r="BW3">
-        <v>0.85</v>
-      </c>
-      <c r="BX3">
-        <v>0.85</v>
-      </c>
-      <c r="BZ3">
-        <v>0.85</v>
-      </c>
-      <c r="CA3">
-        <v>0.85</v>
-      </c>
-      <c r="CC3">
-        <v>0.85</v>
-      </c>
-      <c r="CD3">
-        <v>0.85</v>
-      </c>
-      <c r="CF3">
-        <v>0.85</v>
-      </c>
-      <c r="CG3">
-        <v>0.85</v>
-      </c>
-      <c r="CI3">
-        <v>0.85</v>
-      </c>
-      <c r="CJ3">
-        <v>0.85</v>
-      </c>
-      <c r="CL3">
-        <v>0.85</v>
-      </c>
-      <c r="CM3">
-        <v>0.85</v>
-      </c>
-      <c r="CO3">
-        <v>0.85</v>
-      </c>
-      <c r="CP3">
-        <v>0.85</v>
-      </c>
-      <c r="CR3">
-        <v>0.85</v>
-      </c>
-      <c r="CS3">
-        <v>0.85</v>
-      </c>
-      <c r="CU3">
-        <v>0.85</v>
-      </c>
-      <c r="CV3">
-        <v>0.85</v>
-      </c>
-      <c r="CX3">
-        <v>0.85</v>
-      </c>
-      <c r="CY3">
-        <v>0.85</v>
-      </c>
-      <c r="DA3">
-        <v>0.85</v>
-      </c>
-      <c r="DB3">
-        <v>0.85</v>
-      </c>
-      <c r="DD3">
-        <v>0.85</v>
-      </c>
-      <c r="DE3">
         <v>0.85</v>
       </c>
     </row>
